--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -575,7 +575,7 @@
         <v>44571</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44336.78922453704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44848</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -739,14 +739,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 27724-2022</t>
+          <t>A 50934-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44743.48386574074</v>
+        <v>45602</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -796,14 +796,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 56948-2025</t>
+          <t>A 46779-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45978.64356481482</v>
+        <v>45926</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -853,14 +853,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 64431-2023</t>
+          <t>A 31120-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45280</v>
+        <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -910,14 +910,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 46779-2025</t>
+          <t>A 56948-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45926</v>
+        <v>45978.64356481482</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -967,14 +967,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 64445-2023</t>
+          <t>A 64431-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
         <v>45280</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>45978.58453703704</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1081,14 +1081,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 31120-2023</t>
+          <t>A 27724-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45113</v>
+        <v>44743.48386574074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>44613</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1195,14 +1195,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 50934-2024</t>
+          <t>A 64445-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45602</v>
+        <v>45280</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -575,7 +575,7 @@
         <v>44571</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44336.78922453704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44848</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45602</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>45926</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45978.64356481482</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>45280</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>45978.58453703704</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44743.48386574074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44613</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>45280</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -575,7 +575,7 @@
         <v>44571</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44336.78922453704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44848</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45602</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         <v>45926</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
         <v>45978.64356481482</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -974,7 +974,7 @@
         <v>45280</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>45978.58453703704</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>44743.48386574074</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>44613</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>45280</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -575,7 +575,7 @@
         <v>44571</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
         <v>44336.78922453704</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         <v>44848</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -739,14 +739,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 50934-2024</t>
+          <t>A 27724-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45602</v>
+        <v>44743.48386574074</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -796,14 +796,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 46779-2025</t>
+          <t>A 64445-2023</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45926</v>
+        <v>45280</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -910,14 +910,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 56948-2025</t>
+          <t>A 46779-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45978.64356481482</v>
+        <v>45926</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>45280</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1031,7 +1031,7 @@
         <v>45978.58453703704</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1081,14 +1081,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 27724-2022</t>
+          <t>A 56948-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44743.48386574074</v>
+        <v>45978.64356481482</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.3</v>
+        <v>4.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>44613</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1195,14 +1195,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 64445-2023</t>
+          <t>A 50934-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45280</v>
+        <v>45602</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -568,14 +568,14 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A 1053-2022</t>
+          <t>A 5779-2026</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44571</v>
+        <v>46056</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -588,16 +588,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -612,27 +612,56 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>Tallticka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0114/artfynd/A 5779-2026 artfynd.xlsx", "A 5779-2026")</f>
+        <v/>
+      </c>
+      <c r="T2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0114/kartor/A 5779-2026 karta.png", "A 5779-2026")</f>
+        <v/>
+      </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0114/klagomål/A 5779-2026 FSC-klagomål.docx", "A 5779-2026")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0114/klagomålsmail/A 5779-2026 FSC-klagomål mail.docx", "A 5779-2026")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0114/tillsyn/A 5779-2026 tillsynsbegäran.docx", "A 5779-2026")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0114/tillsynsmail/A 5779-2026 tillsynsbegäran mail.docx", "A 5779-2026")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 24221-2021</t>
+          <t>A 1053-2022</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44336.78922453704</v>
+        <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -645,7 +674,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -682,14 +711,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 46826-2022</t>
+          <t>A 24221-2021</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44848</v>
+        <v>44336.78922453704</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -702,7 +731,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -739,14 +768,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 27724-2022</t>
+          <t>A 46826-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44743.48386574074</v>
+        <v>44848</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -759,7 +788,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -796,14 +825,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 64445-2023</t>
+          <t>A 50934-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45280</v>
+        <v>45602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -816,7 +845,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -853,14 +882,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 31120-2023</t>
+          <t>A 46779-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45113</v>
+        <v>45926</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -873,7 +902,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -910,14 +939,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 46779-2025</t>
+          <t>A 31120-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45926</v>
+        <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -930,7 +959,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -974,7 +1003,7 @@
         <v>45280</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1024,14 +1053,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 56917-2025</t>
+          <t>A 56948-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45978.58453703704</v>
+        <v>45978.64356481482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1044,7 +1073,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1081,14 +1110,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 56948-2025</t>
+          <t>A 56917-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45978.64356481482</v>
+        <v>45978.58453703704</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1101,7 +1130,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1138,14 +1167,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 8748-2022</t>
+          <t>A 27724-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44613</v>
+        <v>44743.48386574074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1158,7 +1187,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1192,17 +1221,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr"/>
     </row>
-    <row r="13">
+    <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 50934-2024</t>
+          <t>A 8748-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45602</v>
+        <v>44613</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1215,7 +1244,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1248,6 +1277,63 @@
         <v>0</v>
       </c>
       <c r="R13" s="2" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 64445-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>STOCKHOLMS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>UPPLANDS VÄSBY</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -575,7 +575,7 @@
         <v>46056</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -654,14 +654,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 1053-2022</t>
+          <t>A 46826-2022</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44571</v>
+        <v>44848</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>44336.78922453704</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -768,14 +768,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 46826-2022</t>
+          <t>A 1053-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44848</v>
+        <v>44571</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -825,14 +825,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 50934-2024</t>
+          <t>A 27724-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45602</v>
+        <v>44743.48386574074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -882,14 +882,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 46779-2025</t>
+          <t>A 64431-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45926</v>
+        <v>45280</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -939,14 +939,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 31120-2023</t>
+          <t>A 64445-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45113</v>
+        <v>45280</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -996,14 +996,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 64431-2023</t>
+          <t>A 8748-2022</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45280</v>
+        <v>44613</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1053,14 +1053,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 56948-2025</t>
+          <t>A 31120-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45978.64356481482</v>
+        <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.7</v>
+        <v>0.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1110,14 +1110,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 56917-2025</t>
+          <t>A 50934-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45978.58453703704</v>
+        <v>45602</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1167,14 +1167,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 27724-2022</t>
+          <t>A 46779-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44743.48386574074</v>
+        <v>45926</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1224,14 +1224,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 8748-2022</t>
+          <t>A 56917-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44613</v>
+        <v>45978.58453703704</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1281,14 +1281,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 64445-2023</t>
+          <t>A 56948-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45280</v>
+        <v>45978.64356481482</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -575,7 +575,7 @@
         <v>46056</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -654,14 +654,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 46826-2022</t>
+          <t>A 1053-2022</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44848</v>
+        <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>44336.78922453704</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -768,14 +768,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 1053-2022</t>
+          <t>A 46826-2022</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44571</v>
+        <v>44848</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -825,14 +825,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 27724-2022</t>
+          <t>A 50934-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44743.48386574074</v>
+        <v>45602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -882,14 +882,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 64431-2023</t>
+          <t>A 31120-2023</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45280</v>
+        <v>45113</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -939,14 +939,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 64445-2023</t>
+          <t>A 46779-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45280</v>
+        <v>45926</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -996,14 +996,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 8748-2022</t>
+          <t>A 64431-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44613</v>
+        <v>45280</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1053,14 +1053,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 31120-2023</t>
+          <t>A 56948-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45113</v>
+        <v>45978.64356481482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.2</v>
+        <v>4.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1110,14 +1110,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 50934-2024</t>
+          <t>A 56917-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45602</v>
+        <v>45978.58453703704</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1167,14 +1167,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 46779-2025</t>
+          <t>A 27724-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45926</v>
+        <v>44743.48386574074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1224,14 +1224,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 56917-2025</t>
+          <t>A 8748-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45978.58453703704</v>
+        <v>44613</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1281,14 +1281,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 56948-2025</t>
+          <t>A 64445-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45978.64356481482</v>
+        <v>45280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -575,7 +575,7 @@
         <v>46056</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
         <v>44336.78922453704</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>44848</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -882,14 +882,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 31120-2023</t>
+          <t>A 46779-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45113</v>
+        <v>45926</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -939,14 +939,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 46779-2025</t>
+          <t>A 56948-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45926</v>
+        <v>45978.64356481482</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -996,14 +996,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 64431-2023</t>
+          <t>A 56917-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45280</v>
+        <v>45978.58453703704</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1053,14 +1053,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 56948-2025</t>
+          <t>A 31120-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45978.64356481482</v>
+        <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.7</v>
+        <v>0.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1110,14 +1110,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 56917-2025</t>
+          <t>A 64431-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45978.58453703704</v>
+        <v>45280</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>44743.48386574074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>44613</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>45280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -575,7 +575,7 @@
         <v>46056</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
         <v>44336.78922453704</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>44848</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -825,14 +825,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 50934-2024</t>
+          <t>A 56948-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45602</v>
+        <v>45978.64356481482</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -882,14 +882,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 46779-2025</t>
+          <t>A 56917-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45926</v>
+        <v>45978.58453703704</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -939,14 +939,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 56948-2025</t>
+          <t>A 46779-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45978.64356481482</v>
+        <v>45926</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -996,14 +996,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 56917-2025</t>
+          <t>A 50934-2024</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45978.58453703704</v>
+        <v>45602</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>45280</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44743.48386574074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>44613</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>45280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -575,7 +575,7 @@
         <v>46056</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
         <v>44336.78922453704</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>44848</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -825,14 +825,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 56948-2025</t>
+          <t>A 27724-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45978.64356481482</v>
+        <v>44743.48386574074</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -882,14 +882,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 56917-2025</t>
+          <t>A 46779-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45978.58453703704</v>
+        <v>45926</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -939,14 +939,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 46779-2025</t>
+          <t>A 56917-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45926</v>
+        <v>45978.58453703704</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -996,14 +996,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 50934-2024</t>
+          <t>A 56948-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45602</v>
+        <v>45978.64356481482</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1053,14 +1053,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 31120-2023</t>
+          <t>A 64445-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45113</v>
+        <v>45280</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0.2</v>
+        <v>3.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1110,14 +1110,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 64431-2023</t>
+          <t>A 31120-2023</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45280</v>
+        <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1167,14 +1167,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 27724-2022</t>
+          <t>A 64431-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44743.48386574074</v>
+        <v>45280</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>44613</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1281,14 +1281,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 64445-2023</t>
+          <t>A 50934-2024</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45280</v>
+        <v>45602</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -575,7 +575,7 @@
         <v>46056</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
         <v>44336.78922453704</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>44848</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -825,14 +825,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 27724-2022</t>
+          <t>A 50934-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44743.48386574074</v>
+        <v>45602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>45926</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -939,14 +939,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 56917-2025</t>
+          <t>A 31120-2023</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45978.58453703704</v>
+        <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -996,14 +996,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 56948-2025</t>
+          <t>A 64431-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45978.64356481482</v>
+        <v>45280</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1053,14 +1053,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 64445-2023</t>
+          <t>A 56948-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45280</v>
+        <v>45978.64356481482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1110,14 +1110,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 31120-2023</t>
+          <t>A 56917-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45113</v>
+        <v>45978.58453703704</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1167,14 +1167,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 64431-2023</t>
+          <t>A 27724-2022</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45280</v>
+        <v>44743.48386574074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>44613</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1281,14 +1281,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 50934-2024</t>
+          <t>A 64445-2023</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45602</v>
+        <v>45280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>

--- a/Översikt UPPLANDS VÄSBY.xlsx
+++ b/Översikt UPPLANDS VÄSBY.xlsx
@@ -575,7 +575,7 @@
         <v>46056</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
         <v>44336.78922453704</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -775,7 +775,7 @@
         <v>44848</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>45602</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         <v>45926</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
         <v>45280</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>45978.64356481482</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>45978.58453703704</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>44743.48386574074</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
         <v>44613</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>45280</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
